--- a/TI/REQUISITOS e BACKLOG/backlog_projeto.xlsx
+++ b/TI/REQUISITOS e BACKLOG/backlog_projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Lucas\Bandtec\sprint 2\SPRINT2-SUSTABIL-PROJETO\TI\REQUISITOS e BACKLOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bandtec\Projeto PI\SPRINT2-SUSTABIL-PROJETO\TI\REQUISITOS e BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13B3E5-14CC-484D-829C-A5A8B9DC2FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE49218-8145-4302-92E7-9B9EFB6F1912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30435" yWindow="2355" windowWidth="21480" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t xml:space="preserve">Não Funcional </t>
   </si>
@@ -36,9 +36,6 @@
     <t>Desejável</t>
   </si>
   <si>
-    <t>Site ser leve</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>Simulação de execução dos sensores</t>
   </si>
   <si>
-    <t xml:space="preserve">CRUD para manutenção das informações </t>
-  </si>
-  <si>
-    <t>Design responsivo</t>
-  </si>
-  <si>
     <t>Caso o usuário queira cancelar o seu login, é preciso que seja confirmada o cancelamento via email</t>
   </si>
   <si>
@@ -111,18 +102,9 @@
     <t>Não Funcional</t>
   </si>
   <si>
-    <t>O software deve conter uma página ajuda para ensinar ao usuário como mexer no programa</t>
-  </si>
-  <si>
-    <t>O software deve atualizar o Dashboard de 2 em 2  minutos</t>
-  </si>
-  <si>
     <t>Solução deve ser implementada utilizando simulador de Arduino e sensores.</t>
   </si>
   <si>
-    <t xml:space="preserve">Linguagem de programação do Arduino em Javascript. </t>
-  </si>
-  <si>
     <t>Simulador de sensores NodeJS.</t>
   </si>
   <si>
@@ -135,12 +117,6 @@
     <t>A solução deve possuir um banco de dados relacional.</t>
   </si>
   <si>
-    <t>A solução deve possuir um SGBD relacional.</t>
-  </si>
-  <si>
-    <t>SGBD MySQL.</t>
-  </si>
-  <si>
     <t>Servidor extra para melhor consistência dos serviços</t>
   </si>
   <si>
@@ -186,19 +162,34 @@
     <t xml:space="preserve">O software deverá conter quantos gráficos o usuário quiser para melhor visualização </t>
   </si>
   <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
     <t>Ordem Execução</t>
   </si>
   <si>
     <t>Sprint</t>
   </si>
   <si>
-    <t>21 EX</t>
-  </si>
-  <si>
     <t xml:space="preserve">O software deverá fazer a consulta no banco de dados e ter uma funcionalidade para trazer uma média </t>
+  </si>
+  <si>
+    <t>Escala Fibonacci</t>
+  </si>
+  <si>
+    <t>Site ser otimizado</t>
+  </si>
+  <si>
+    <t>CRUD para manutenção das informações , no banco de dados</t>
+  </si>
+  <si>
+    <t>O software deve conter uma página ajuda para ensinar ao usuário como mexer no programa (video)</t>
+  </si>
+  <si>
+    <t>O software deve atualizar o Dashboard em X tempo</t>
+  </si>
+  <si>
+    <t>Linguagem de programação do Arduino em Backend</t>
+  </si>
+  <si>
+    <t>Conteúdo</t>
   </si>
 </sst>
 </file>
@@ -261,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -375,15 +366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -440,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -487,29 +469,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,16 +487,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,155 +839,182 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D3" s="24">
+        <v>21</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D4" s="29">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D5" s="29">
+        <v>5</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>8</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="24">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="B10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -1014,13 +1022,16 @@
       <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="24">
+        <v>21</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -1028,492 +1039,1096 @@
       <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="24">
+        <v>21</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24">
+        <v>8</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24">
+        <v>5</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24">
+        <v>13</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30">
+        <v>5</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D21" s="24">
+        <v>5</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D22" s="24">
+        <v>13</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="29">
+        <v>13</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="29">
+        <v>5</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="29">
+        <v>8</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="24">
+        <v>8</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D28" s="24">
+        <v>8</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D29" s="24">
+        <v>5</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="24">
+        <v>13</v>
+      </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D33" s="24">
+        <v>21</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D34" s="24">
+        <v>3</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D35" s="24">
+        <v>3</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="24">
+        <v>3</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="24">
+        <v>8</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="29">
+        <v>8</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="29">
+        <v>13</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="24">
+        <v>13</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="24">
+        <v>21</v>
+      </c>
+      <c r="E50" s="26">
+        <v>1</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="29">
+        <v>3</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="29">
+        <v>5</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="29">
+        <v>3</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="24">
+        <v>8</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="24">
+        <v>8</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="24">
+        <v>8</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="29">
+        <v>3</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="24">
+        <v>21</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="24">
+        <v>21</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="24">
+        <v>8</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="24">
+        <v>5</v>
+      </c>
+      <c r="E61" s="26"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="24">
+        <v>13</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="24">
+        <v>13</v>
+      </c>
+      <c r="E63" s="26"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="30">
+        <v>3</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="30">
+        <v>5</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="24">
+        <v>5</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="24">
+        <v>13</v>
+      </c>
+      <c r="E69" s="26"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="29">
+        <v>13</v>
+      </c>
+      <c r="E70" s="26"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="29">
+        <v>5</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="29">
+        <v>8</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="24">
+        <v>8</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="24">
+        <v>8</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="24">
+        <v>5</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="24">
+        <v>13</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="24">
+        <v>21</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="24">
+        <v>3</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="24">
+        <v>3</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="24">
+        <v>3</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="24">
+        <v>8</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="29">
+        <v>8</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="29">
+        <v>13</v>
+      </c>
+      <c r="E87" s="26"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="24">
+        <v>13</v>
+      </c>
+      <c r="E88" s="28"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="31"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/TI/REQUISITOS e BACKLOG/backlog_projeto.xlsx
+++ b/TI/REQUISITOS e BACKLOG/backlog_projeto.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bandtec\Projeto PI\SPRINT2-SUSTABIL-PROJETO\TI\REQUISITOS e BACKLOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Lucas\Bandtec\sprint 2\SPRINT2-SUSTABIL-PROJETO\TI\REQUISITOS e BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE49218-8145-4302-92E7-9B9EFB6F1912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782D48C-1534-4D0A-B4D6-5A6ABBF004DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Ordem" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
   <si>
     <t xml:space="preserve">Não Funcional </t>
   </si>
@@ -190,6 +200,24 @@
   </si>
   <si>
     <t>Conteúdo</t>
+  </si>
+  <si>
+    <t>Lista de Taferas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End, site </t>
+  </si>
+  <si>
+    <t>Análise e estruturação do bando de dados</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Todos os Membros</t>
+  </si>
+  <si>
+    <t>todos os Membros</t>
   </si>
 </sst>
 </file>
@@ -252,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -417,12 +445,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -504,11 +625,63 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,11 +1011,10 @@
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
@@ -852,31 +1024,23 @@
       <c r="C1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="41"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="33"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -886,14 +1050,13 @@
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="44">
         <v>21</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -903,14 +1066,13 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29">
-        <v>3</v>
-      </c>
-      <c r="E4" s="26"/>
+      <c r="D4" s="45">
+        <v>3</v>
+      </c>
+      <c r="E4" s="42"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -920,14 +1082,13 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29">
-        <v>5</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="45">
+        <v>5</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -937,14 +1098,11 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="29">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -954,14 +1112,11 @@
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="44">
         <v>8</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -971,14 +1126,11 @@
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="44">
         <v>8</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -988,14 +1140,11 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="44">
         <v>8</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1005,14 +1154,11 @@
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="29">
-        <v>3</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -1022,14 +1168,11 @@
       <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="44">
         <v>21</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
@@ -1039,14 +1182,11 @@
       <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="44">
         <v>21</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1056,14 +1196,11 @@
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="44">
         <v>8</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1073,14 +1210,11 @@
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="24">
-        <v>5</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1090,14 +1224,11 @@
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="44">
         <v>13</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1107,14 +1238,11 @@
       <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="44">
         <v>13</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1124,14 +1252,11 @@
       <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="30">
-        <v>3</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1141,25 +1266,19 @@
       <c r="C18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="30">
-        <v>5</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
@@ -1169,12 +1288,9 @@
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="48"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1184,14 +1300,11 @@
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="24">
-        <v>5</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -1201,14 +1314,11 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="44">
         <v>13</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1218,14 +1328,11 @@
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="45">
         <v>13</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1235,14 +1342,11 @@
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="29">
-        <v>5</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1252,14 +1356,11 @@
       <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="45">
         <v>8</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1269,14 +1370,11 @@
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="44">
         <v>8</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
@@ -1286,12 +1384,9 @@
       <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="48"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
@@ -1301,14 +1396,11 @@
       <c r="C28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="44">
         <v>8</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -1318,14 +1410,11 @@
       <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="24">
-        <v>5</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>41</v>
       </c>
@@ -1335,23 +1424,17 @@
       <c r="C30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="48"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
@@ -1361,14 +1444,11 @@
       <c r="C32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="44">
         <v>13</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>53</v>
       </c>
@@ -1378,14 +1458,11 @@
       <c r="C33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="44">
         <v>21</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>26</v>
       </c>
@@ -1395,14 +1472,11 @@
       <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="24">
-        <v>3</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -1412,14 +1486,11 @@
       <c r="C35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="24">
-        <v>3</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
@@ -1429,25 +1500,19 @@
       <c r="C36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="24">
-        <v>3</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>29</v>
       </c>
@@ -1457,14 +1522,11 @@
       <c r="C38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="44">
         <v>8</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -1474,14 +1536,11 @@
       <c r="C39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="45">
         <v>8</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -1491,14 +1550,11 @@
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="45">
         <v>13</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>31</v>
       </c>
@@ -1508,630 +1564,711 @@
       <c r="C41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="44">
         <v>13</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="49"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="58"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="24">
+        <v>56</v>
+      </c>
+      <c r="B50" s="24">
         <v>21</v>
       </c>
-      <c r="E50" s="26">
+      <c r="C50" s="56">
         <v>1</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="29">
-        <v>3</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="29">
+        <v>3</v>
+      </c>
+      <c r="C51" s="56">
+        <v>2</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="29">
-        <v>5</v>
-      </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="29">
-        <v>3</v>
-      </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="29">
+        <v>3</v>
+      </c>
+      <c r="C52" s="56">
+        <v>3</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="24">
+        <v>8</v>
+      </c>
+      <c r="C53" s="56">
+        <v>4</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="24">
-        <v>8</v>
-      </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="24">
-        <v>8</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="24">
+        <v>13</v>
+      </c>
+      <c r="C54" s="56">
+        <v>5</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="31">
+        <v>3</v>
+      </c>
+      <c r="C55" s="56">
         <v>6</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="24">
-        <v>8</v>
-      </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="29">
-        <v>3</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="24">
-        <v>21</v>
-      </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="24">
-        <v>21</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="24">
-        <v>8</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="24">
-        <v>5</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="24">
-        <v>13</v>
-      </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="24">
-        <v>13</v>
-      </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="30">
-        <v>3</v>
-      </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="30">
-        <v>5</v>
-      </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="24">
-        <v>5</v>
-      </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="24">
-        <v>13</v>
-      </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="29">
-        <v>13</v>
-      </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="29">
-        <v>5</v>
-      </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="29">
-        <v>8</v>
-      </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="24">
-        <v>8</v>
-      </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="24">
-        <v>8</v>
-      </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="24">
-        <v>5</v>
-      </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="24">
-        <v>13</v>
-      </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="24">
-        <v>21</v>
-      </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="24">
-        <v>3</v>
-      </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="24">
-        <v>3</v>
-      </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="24">
-        <v>3</v>
-      </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="24">
-        <v>8</v>
-      </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="29">
-        <v>8</v>
-      </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="29">
-        <v>13</v>
-      </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="24">
-        <v>13</v>
-      </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+      <c r="D55" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="57"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="57"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479FC694-CF29-4B83-8C24-8BBF85E350A8}">
+  <dimension ref="C5:I46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="24">
+        <v>21</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="29">
+        <v>3</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="29">
+        <v>5</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="29">
+        <v>3</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="24">
+        <v>8</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="24">
+        <v>8</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="24">
+        <v>8</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="29">
+        <v>3</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="24">
+        <v>21</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="24">
+        <v>21</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="24">
+        <v>8</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="24">
+        <v>5</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="24">
+        <v>13</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="24">
+        <v>13</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="3:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="30">
+        <v>3</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="3:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="30">
+        <v>5</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="24">
+        <v>5</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="24">
+        <v>13</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="29">
+        <v>13</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="29">
+        <v>8</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="24">
+        <v>8</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="24">
+        <v>8</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="24">
+        <v>5</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="24">
+        <v>13</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="24">
+        <v>21</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="24">
+        <v>3</v>
+      </c>
+      <c r="G39" s="26"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="24">
+        <v>3</v>
+      </c>
+      <c r="G40" s="26"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="3:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="24">
+        <v>3</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="24">
+        <v>8</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="29">
+        <v>8</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="29">
+        <v>13</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="24">
+        <v>13</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="H46" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>